--- a/medicine/Pharmacie/Bestatine/Bestatine.xlsx
+++ b/medicine/Pharmacie/Bestatine/Bestatine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La bestatine, ou ubénimex, est un inhibiteur de protéase issue de Streptomyces olivoreticuli[2]. Il s'agit d'un inhibiteur de l'aminopeptidase B[3] (EC 3.4.11.6), de la leucotriène A4 hydrolase[4] (EC 3.3.2.6) et de l'alanine aminopeptidase[5] (EC 3.4.11.2). Elle est étudiée expérimentalement pour le traitement de la leucémie aiguë myéloblastique[6].
+La bestatine, ou ubénimex, est un inhibiteur de protéase issue de Streptomyces olivoreticuli. Il s'agit d'un inhibiteur de l'aminopeptidase B (EC 3.4.11.6), de la leucotriène A4 hydrolase (EC 3.3.2.6) et de l'alanine aminopeptidase (EC 3.4.11.2). Elle est étudiée expérimentalement pour le traitement de la leucémie aiguë myéloblastique.
 </t>
         </is>
       </c>
